--- a/backend/common/primary_data/大埔区升学数据.xlsx
+++ b/backend/common/primary_data/大埔区升学数据.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="15880" firstSheet="8" activeTab="9"/>
+    <workbookView windowHeight="15840" firstSheet="8" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="五旬節聖潔會永光小學" sheetId="1" r:id="rId1"/>
@@ -2095,7 +2095,7 @@
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="18" customHeight="1" outlineLevelCol="4"/>
